--- a/docs/antidote-data-example.xlsx
+++ b/docs/antidote-data-example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ravar\Documents\GitHub\recsys-antidote_02\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ravar\Documents\GitHub\recsys-antidote\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12280EE4-B97F-4DC0-B9D5-C71E6A748CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F888CF-5F7B-4A9D-861C-2B970564779B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="775" activeTab="5" xr2:uid="{1F5C19FF-B230-4FEF-8817-0EE2D2EDE492}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="775" activeTab="1" xr2:uid="{1F5C19FF-B230-4FEF-8817-0EE2D2EDE492}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="16" r:id="rId1"/>
@@ -5257,7 +5257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72AC61B-36B4-457E-9BE6-4FAA3473913E}">
   <dimension ref="A1:AB42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -15991,7 +15991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B57777-6B87-4C63-BB96-7DD83DF16E93}">
   <dimension ref="A1:AD49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/docs/antidote-data-example.xlsx
+++ b/docs/antidote-data-example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ravar\Documents\GitHub\recsys-antidote\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F888CF-5F7B-4A9D-861C-2B970564779B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35677367-1A26-42AD-97B7-26A2904BC80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="775" activeTab="1" xr2:uid="{1F5C19FF-B230-4FEF-8817-0EE2D2EDE492}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="775" xr2:uid="{1F5C19FF-B230-4FEF-8817-0EE2D2EDE492}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="16" r:id="rId1"/>
@@ -4185,7 +4185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62C7114-E253-4DE0-B3FD-FCF3397B7D9C}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5257,7 +5257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72AC61B-36B4-457E-9BE6-4FAA3473913E}">
   <dimension ref="A1:AB42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
